--- a/Fall2023/BUS211/course content.xlsx
+++ b/Fall2023/BUS211/course content.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeabinmoon/Documents/ibs_course/Fall2023/BUS211/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B20B2461-3B7F-A04D-B16B-6BDADC37CF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067D9C06-D443-3848-BA46-B3CEF73E5A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="5660" windowWidth="29200" windowHeight="21420" xr2:uid="{C6D31EA4-AE7D-604A-9F18-8714782B956A}"/>
+    <workbookView xWindow="1860" yWindow="500" windowWidth="30220" windowHeight="26580" xr2:uid="{C6D31EA4-AE7D-604A-9F18-8714782B956A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,12 +62,6 @@
     <t>Thanksgiving</t>
   </si>
   <si>
-    <t>Course Intro</t>
-  </si>
-  <si>
-    <t>Data project pipeline and networking</t>
-  </si>
-  <si>
     <t>Probability</t>
   </si>
   <si>
@@ -138,6 +132,12 @@
   </si>
   <si>
     <t>Text Analysis 1</t>
+  </si>
+  <si>
+    <t>Job market overview, network, what to expect?</t>
+  </si>
+  <si>
+    <t>Course Intro: AI?</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -547,7 +547,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -558,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -569,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -580,7 +580,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -599,7 +599,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -613,7 +613,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -624,7 +624,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -635,7 +635,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -654,7 +654,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -665,7 +665,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -676,11 +676,11 @@
         <v>45215</v>
       </c>
       <c r="B16">
-        <f>B15+1</f>
+        <f t="shared" ref="B16:B26" si="0">B15+1</f>
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -688,11 +688,11 @@
         <v>45217</v>
       </c>
       <c r="B17">
-        <f>B16+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -700,11 +700,11 @@
         <v>45222</v>
       </c>
       <c r="B18">
-        <f>B17+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -712,35 +712,27 @@
         <v>45224</v>
       </c>
       <c r="B19">
-        <f>B18+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>45229</v>
       </c>
-      <c r="B20">
-        <f>B19+1</f>
-        <v>16</v>
-      </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45231</v>
       </c>
-      <c r="B21">
-        <f>B20+1</f>
-        <v>17</v>
-      </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -748,11 +740,11 @@
         <v>45236</v>
       </c>
       <c r="B22">
-        <f>B21+1</f>
-        <v>18</v>
+        <f>B19+1</f>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -761,10 +753,10 @@
       </c>
       <c r="B23">
         <f>B22+1</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -773,10 +765,10 @@
       </c>
       <c r="B24">
         <f>B23+1</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -785,10 +777,10 @@
       </c>
       <c r="B25">
         <f>B24+1</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -797,10 +789,10 @@
       </c>
       <c r="B26">
         <f>B25+1</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -816,10 +808,11 @@
         <v>45257</v>
       </c>
       <c r="B28">
-        <v>23</v>
+        <f>B26+1</f>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -828,10 +821,10 @@
       </c>
       <c r="B29">
         <f>B28+1</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -839,11 +832,10 @@
         <v>45264</v>
       </c>
       <c r="B30">
-        <f>B29+1</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -852,10 +844,10 @@
       </c>
       <c r="B31">
         <f>B30+1</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
